--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_117.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_117.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,630 +488,644 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_288</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_223</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.09935897435897437</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['E', 'B', 'C#:min'], ['E', 'B', 'E']]</t>
-        </is>
+          <t>schubert-winterreise_40</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_18</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.3452380952380952</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['A', 'E', 'F#:min'], ['A', 'E', 'A']]</t>
+          <t>[['D:maj', 'A:7/G', 'D:maj/F#', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(24.921383, 29.008095), (16.701519, 23.528185)]</t>
+          <t>[['F:maj/C', 'C:7', 'F:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(9.607823, 12.823786), (0.440395, 7.142059)]</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:3KfbEIOC7YIv90FIfNSZpo</t>
-        </is>
-      </c>
+          <t>[('0:03:40.960000', '0:03:52.160000')]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[('0:01:14.400000', '0:01:26.060000')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_172</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_95</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.2833333333333333</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['E:maj/G#', 'E:maj/B', 'B:7', 'E:maj/G#']]</t>
-        </is>
+          <t>schubert-winterreise_4</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_131</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.2976190476190476</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['C', 'C/G', 'G:7', 'C']]</t>
+          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(227.46, 241.44)]</t>
+          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(225.32, 230.46)]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
+          <t>[('0:01:06.520000', '0:01:10.140000')]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[('0:01:01.320000', '0:01:03.700000')]</t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_182</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_123</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.4689655172413794</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
-        </is>
+          <t>schubert-winterreise_51</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_94</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.06346153846153846</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E', 'A']]</t>
+          <t>[['A#:7', 'D#', 'C:min'], ['C:min/G', 'G', 'C:min'], ['C:min/G', 'G:7', 'C:min'], ['D#/G', 'A#:7/F', 'D#/G'], ['C:min', 'F:min', 'C:min/G']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(154.02, 160.38)]</t>
+          <t>[['G#:7', 'C#:maj', 'A#:min'], ['A#:min', 'F:maj', 'A#:min'], ['A#:min/F', 'F:7', 'A#:min'], ['C#:maj/F', 'G#:7', 'C#:maj'], ['A#:min', 'D#:min/A#', 'A#:min']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(8.413696, 12.303038)]</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
+          <t>[('0:00:35.700000', '0:00:38.280000'), ('0:00:12.560000', '0:00:17.200000'), ('0:00:23.040000', '0:00:26.520000'), ('0:00:40.640000', '0:00:42.420000'), ('0:00:07.840000', '0:00:11.420000')]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[('0:00:43.040000', '0:00:49.380000'), ('0:00:15.600000', '0:00:24.080000'), ('0:01:24.620000', '0:01:31.740000'), ('0:00:41.320000', '0:00:46.640000'), ('0:00:30.240000', '0:00:38.500000')]</t>
+        </is>
+      </c>
       <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_162</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>isophonics_69</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.2843137254901961</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['A', 'A', 'D', 'A']]</t>
-        </is>
+          <t>isophonics_39</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>isophonics_282</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.1154639175257732</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['E', 'E', 'A', 'E']]</t>
+          <t>[['D', 'E', 'A']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(34.290634, 43.926916)]</t>
+          <t>[['Eb', 'F', 'Bb']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(22.125076, 36.625937)]</t>
+          <t>[('0:00:02.557446', '0:00:06.319079')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:4MLBqAEzNN89o2M9h92Z26</t>
+          <t>[('0:00:44.917324', '0:00:48.272607')]</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:3Am0IbOxmvlSXro7N5iSfZ</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>isophonics_152</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_177</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.09615384615384616</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['A/3', 'A:min/b3', 'E/5']]</t>
-        </is>
+          <t>isophonics_216</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>isophonics_39</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.06385101429996674</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['D:maj/A', 'D:min/A', 'A:maj']]</t>
+          <t>[['E', 'A', 'D']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(38.032, 41.0)]</t>
+          <t>[['E', 'A', 'D']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(5.86, 13.5)]</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>[('0:00:25.850181', '0:00:31.898979')]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[('0:00:00.426857', '0:00:03.509464')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>jaah_64</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>jaah_66</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.05742771684945164</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['Bb:7', 'A:7', 'D:7', 'G:7']]</t>
-        </is>
+          <t>schubert-winterreise_90</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>isophonics_152</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.3576923076923077</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['Gb:7', 'F:7', 'Bb:7', 'Eb:7']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(55.64, 62.21)]</t>
+          <t>[['A/3', 'D', 'A']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(52.97, 56.36)]</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
+          <t>[('0:02:34.760000', '0:02:39.840000')]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[('0:00:04.250000', '0:00:09.179000')]</t>
+        </is>
+      </c>
       <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>jaah_27</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>jaah_31</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1078869047619048</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['D', 'E:min7', 'A:7', 'D', 'D']]</t>
-        </is>
+          <t>schubert-winterreise_126</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_17</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.4875</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['C', 'D:min7', 'G:7', 'C', 'C']]</t>
+          <t>[['D:maj/F#', 'G:maj', 'D:maj']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(7.74, 12.93)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(62.27, 69.76)]</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
+          <t>[('0:00:58.080000', '0:01:05.660000')]</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[('0:02:18.020000', '0:02:22.340000')]</t>
+        </is>
+      </c>
       <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_170</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>isophonics_147</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1113122171945701</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['C:maj/E', 'G:maj/D', 'G:7/F'], ['G:maj', 'C:maj/G', 'G:maj']]</t>
-        </is>
+          <t>isophonics_221</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_114</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.3541666666666666</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['A', 'E', 'E:7'], ['E', 'A', 'E']]</t>
+          <t>[['C', 'F/5', 'C']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(61.8, 67.0), (16.02, 22.5)]</t>
+          <t>[['D:maj/F#', 'G:maj', 'D:maj']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(92.241, 98.929), (19.435, 32.669)]</t>
+          <t>[('0:00:05.121000', '0:00:12.601000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:57.480000', '0:01:04.580000')]</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_205</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_181</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.0945054945054945</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'G:7/F', 'C:maj/E'], ['G:7/F', 'C:maj/E', 'G:maj/D'], ['G:maj', 'D:7/C', 'G:maj/B'], ['D:7', 'G:maj', 'G:maj']]</t>
-        </is>
+          <t>isophonics_111</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_163</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.5515151515151515</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['D#:maj', 'D#:7', 'G#:maj'], ['D#:7/C#', 'G#:maj/C', 'D#:maj/A#'], ['D#:maj/A#', 'A#:7', 'D#:maj'], ['A#:7', 'D#:maj', 'D#:maj']]</t>
+          <t>[['C', 'G:7', 'C', 'G:7', 'C', 'G:7', 'C']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(53.32, 61.84), (58.46, 63.46), (70.06, 80.28), (6.44, 12.42)]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(17.98, 26.32), (63.46, 65.78), (65.28, 71.0), (65.78, 74.48)]</t>
+          <t>[('0:01:10.519024', '0:01:22.732721')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:01:47.100000', '0:01:49.300000')]</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>jaah_86</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_197</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1004700352526439</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['Bb', 'F:7', 'Bb', 'Bb'], ['Bb', 'Bb', 'F:7', 'Bb']]</t>
-        </is>
+          <t>isophonics_295</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>isophonics_64</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.4131944444444444</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['F#:maj/A#', 'C#:7', 'F#:maj', 'F#:maj/A#'], ['F#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj']]</t>
+          <t>[['F', 'C/3', 'F', 'C/3', 'F', 'C/3', 'F']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(14.82, 17.23), (14.59, 16.26)]</t>
+          <t>[['D', 'A', 'D', 'A', 'D', 'A', 'D']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(17.48, 20.74), (19.2, 21.84)]</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:01:16.132993', '0:01:19.523105')]</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[('0:02:06.506000', '0:02:32.302000')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_266</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_170</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.119815668202765</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['A', 'A', 'A/b7']]</t>
-        </is>
+          <t>schubert-winterreise_127</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_204</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['D', 'D/7', 'D/6']]</t>
+          <t>[['E:(3,b5,b7)/G#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(36.173061, 41.86195)]</t>
+          <t>[['E:(3,b5,b7)/G#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(11.500249, 13.311405)]</t>
+          <t>[('0:00:46.060000', '0:00:51.040000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:6Pq9MmkDQYZiiCDpxnvrf6</t>
+          <t>[('0:00:43.100000', '0:00:47.740000')]</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_167</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_34</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1115560640732265</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['G/5', 'C/9', 'G']]</t>
-        </is>
+          <t>schubert-winterreise_196</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_198</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.7083333333333333</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['Eb/5', 'Ab', 'Eb/3']]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(0.727609, 8.204625)]</t>
+          <t>[['B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(86.923922, 92.322562)]</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
+          <t>[('0:00:35.460000', '0:00:50.440000')]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[('0:00:16.560000', '0:00:45.260000')]</t>
+        </is>
+      </c>
       <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>jaah_55</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>jaah_7</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.07334491410924532</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:7', 'C', 'C']]</t>
-        </is>
+          <t>schubert-winterreise_130</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>isophonics_298</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0.75</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['F:7', 'Bb:7', 'Eb', 'Eb']]</t>
+          <t>[['E:maj/G#', 'A:maj', 'E:maj', 'B:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(46.61, 51.08)]</t>
+          <t>[['G', 'C', 'G', 'D']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(27.25, 30.81)]</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
+          <t>[('0:00:55.580000', '0:01:06.200000')]</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[('0:00:00.344657', '0:00:14.158934')]</t>
+        </is>
+      </c>
       <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_49</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>jaah_52</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.06991869918699187</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['G', 'G', 'G'], ['C', 'C:min', 'G']]</t>
-        </is>
+          <t>schubert-winterreise_59</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_172</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['F', 'F', 'F'], ['Bb', 'Bb:min', 'F']]</t>
+          <t>[['C:maj', 'B:(3,5,b9)/C', 'C:maj', 'F#:(3,b5,b9)/C', 'B:maj/C', 'C:maj', 'B:(3,5,b7,b9)', 'C:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(20.940758, 23.936132), (24.911369, 30.797628)]</t>
+          <t>[['C:maj', 'B:(3,5,b9)/C', 'C:maj', 'F#:(3,b5,b9)/C', 'B:maj/C', 'C:maj', 'B:(3,5,b7,b9)', 'C:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(0.59, 5.99), (31.31, 34.95)]</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
+          <t>[('0:02:40.060000', '0:02:44.460000')]</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[('0:02:28.280000', '0:02:33.260000')]</t>
+        </is>
+      </c>
       <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_109</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_34</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.09980620155038759</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['D:min', 'D:min', 'A:7', 'D:min', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_178</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_144</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['C:min', 'C:min/G', 'G:7', 'C:min', 'C:min']]</t>
+          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min', 'A#:maj', 'A#:(3,#5,7)/A', 'G:min', 'G:hdim7/F', 'C:7/E', 'C:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(14.22, 42.42)]</t>
+          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min', 'A#:maj', 'A#:(3,#5,7)/A', 'G:min', 'G:hdim7/F', 'C:7/E', 'C:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(20.78, 27.52)]</t>
+          <t>[('0:00:01.140000', '0:00:16.460000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>[('0:00:00.220000', '0:00:13.100000')]</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>jaah_15</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_111</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.03870192307692308</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['G:7', 'C', 'C'], ['D:min7', 'G:7', 'C']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:maj', 'G:maj'], ['A:min7/C', 'D:7', 'G:maj']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(12.03, 14.36), (11.26, 13.58)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(6.7, 11.86), (64.66, 71.06)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
